--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fstl1-Dip2a.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fstl1-Dip2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Dip2a</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>54.7887472696776</v>
+        <v>55.0079365</v>
       </c>
       <c r="H2">
-        <v>54.7887472696776</v>
+        <v>110.015873</v>
       </c>
       <c r="I2">
-        <v>0.1591138107450379</v>
+        <v>0.1525927687876679</v>
       </c>
       <c r="J2">
-        <v>0.1591138107450379</v>
+        <v>0.1111405712358186</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.6328844995279</v>
+        <v>11.825016</v>
       </c>
       <c r="N2">
-        <v>11.6328844995279</v>
+        <v>23.650032</v>
       </c>
       <c r="O2">
-        <v>0.3159951185657423</v>
+        <v>0.3100662877561242</v>
       </c>
       <c r="P2">
-        <v>0.3159951185657423</v>
+        <v>0.2453710146341254</v>
       </c>
       <c r="Q2">
-        <v>637.3511688619841</v>
+        <v>650.469729239484</v>
       </c>
       <c r="R2">
-        <v>637.3511688619841</v>
+        <v>2601.878916957936</v>
       </c>
       <c r="S2">
-        <v>0.05027918749182533</v>
+        <v>0.04731387335642076</v>
       </c>
       <c r="T2">
-        <v>0.05027918749182533</v>
+        <v>0.02727067473114909</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>54.7887472696776</v>
+        <v>55.0079365</v>
       </c>
       <c r="H3">
-        <v>54.7887472696776</v>
+        <v>110.015873</v>
       </c>
       <c r="I3">
-        <v>0.1591138107450379</v>
+        <v>0.1525927687876679</v>
       </c>
       <c r="J3">
-        <v>0.1591138107450379</v>
+        <v>0.1111405712358186</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.40245009239003</v>
+        <v>6.962713000000001</v>
       </c>
       <c r="N3">
-        <v>6.40245009239003</v>
+        <v>20.888139</v>
       </c>
       <c r="O3">
-        <v>0.1739158483124405</v>
+        <v>0.1825707950518889</v>
       </c>
       <c r="P3">
-        <v>0.1739158483124405</v>
+        <v>0.2167161490626586</v>
       </c>
       <c r="Q3">
-        <v>350.7822200186814</v>
+        <v>383.0044745717245</v>
       </c>
       <c r="R3">
-        <v>350.7822200186814</v>
+        <v>2298.026847430347</v>
       </c>
       <c r="S3">
-        <v>0.02767241337394838</v>
+        <v>0.02785898311673359</v>
       </c>
       <c r="T3">
-        <v>0.02767241337394838</v>
+        <v>0.02408595660285068</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>54.7887472696776</v>
+        <v>55.0079365</v>
       </c>
       <c r="H4">
-        <v>54.7887472696776</v>
+        <v>110.015873</v>
       </c>
       <c r="I4">
-        <v>0.1591138107450379</v>
+        <v>0.1525927687876679</v>
       </c>
       <c r="J4">
-        <v>0.1591138107450379</v>
+        <v>0.1111405712358186</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.64031141418204</v>
+        <v>3.740687</v>
       </c>
       <c r="N4">
-        <v>3.64031141418204</v>
+        <v>11.222061</v>
       </c>
       <c r="O4">
-        <v>0.09888524527062588</v>
+        <v>0.09808535834096063</v>
       </c>
       <c r="P4">
-        <v>0.09888524527062588</v>
+        <v>0.1164297999197653</v>
       </c>
       <c r="Q4">
-        <v>199.4481020545424</v>
+        <v>205.7674729623755</v>
       </c>
       <c r="R4">
-        <v>199.4481020545424</v>
+        <v>1234.604837774253</v>
       </c>
       <c r="S4">
-        <v>0.01573400820146702</v>
+        <v>0.01496711640677776</v>
       </c>
       <c r="T4">
-        <v>0.01573400820146702</v>
+        <v>0.01294007447195478</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>54.7887472696776</v>
+        <v>55.0079365</v>
       </c>
       <c r="H5">
-        <v>54.7887472696776</v>
+        <v>110.015873</v>
       </c>
       <c r="I5">
-        <v>0.1591138107450379</v>
+        <v>0.1525927687876679</v>
       </c>
       <c r="J5">
-        <v>0.1591138107450379</v>
+        <v>0.1111405712358186</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.58975491520357</v>
+        <v>2.636428666666667</v>
       </c>
       <c r="N5">
-        <v>2.58975491520357</v>
+        <v>7.909286</v>
       </c>
       <c r="O5">
-        <v>0.07034797874243288</v>
+        <v>0.06913036308848644</v>
       </c>
       <c r="P5">
-        <v>0.07034797874243288</v>
+        <v>0.08205948858130438</v>
       </c>
       <c r="Q5">
-        <v>141.8894275394937</v>
+        <v>145.0245006827797</v>
       </c>
       <c r="R5">
-        <v>141.8894275394937</v>
+        <v>870.147004096678</v>
       </c>
       <c r="S5">
-        <v>0.01119333497591942</v>
+        <v>0.01054879351096894</v>
       </c>
       <c r="T5">
-        <v>0.01119333497591942</v>
+        <v>0.009120138436245298</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>54.7887472696776</v>
+        <v>55.0079365</v>
       </c>
       <c r="H6">
-        <v>54.7887472696776</v>
+        <v>110.015873</v>
       </c>
       <c r="I6">
-        <v>0.1591138107450379</v>
+        <v>0.1525927687876679</v>
       </c>
       <c r="J6">
-        <v>0.1591138107450379</v>
+        <v>0.1111405712358186</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.34928213233554</v>
+        <v>6.770838333333334</v>
       </c>
       <c r="N6">
-        <v>6.34928213233554</v>
+        <v>20.312515</v>
       </c>
       <c r="O6">
-        <v>0.1724715963866177</v>
+        <v>0.1775396081505116</v>
       </c>
       <c r="P6">
-        <v>0.1724715963866177</v>
+        <v>0.2107440030237968</v>
       </c>
       <c r="Q6">
-        <v>347.8692140924116</v>
+        <v>372.4498450917658</v>
       </c>
       <c r="R6">
-        <v>347.8692140924116</v>
+        <v>2234.699070550595</v>
       </c>
       <c r="S6">
-        <v>0.02744261294635486</v>
+        <v>0.02709126037716417</v>
       </c>
       <c r="T6">
-        <v>0.02744261294635486</v>
+        <v>0.02342220888058785</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>54.7887472696776</v>
+        <v>55.0079365</v>
       </c>
       <c r="H7">
-        <v>54.7887472696776</v>
+        <v>110.015873</v>
       </c>
       <c r="I7">
-        <v>0.1591138107450379</v>
+        <v>0.1525927687876679</v>
       </c>
       <c r="J7">
-        <v>0.1591138107450379</v>
+        <v>0.1111405712358186</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.19881125705768</v>
+        <v>6.201375000000001</v>
       </c>
       <c r="N7">
-        <v>6.19881125705768</v>
+        <v>12.40275</v>
       </c>
       <c r="O7">
-        <v>0.1683842127221407</v>
+        <v>0.1626075876120282</v>
       </c>
       <c r="P7">
-        <v>0.1683842127221407</v>
+        <v>0.1286795447783495</v>
       </c>
       <c r="Q7">
-        <v>339.6251033353657</v>
+        <v>341.1248422126876</v>
       </c>
       <c r="R7">
-        <v>339.6251033353657</v>
+        <v>1364.49936885075</v>
       </c>
       <c r="S7">
-        <v>0.0267922537555229</v>
+        <v>0.02481274201960267</v>
       </c>
       <c r="T7">
-        <v>0.0267922537555229</v>
+        <v>0.01430151811303086</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>230.076389231933</v>
+        <v>244.237152</v>
       </c>
       <c r="H8">
-        <v>230.076389231933</v>
+        <v>732.711456</v>
       </c>
       <c r="I8">
-        <v>0.6681724419242574</v>
+        <v>0.677517202713003</v>
       </c>
       <c r="J8">
-        <v>0.6681724419242574</v>
+        <v>0.7402020049494888</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.6328844995279</v>
+        <v>11.825016</v>
       </c>
       <c r="N8">
-        <v>11.6328844995279</v>
+        <v>23.650032</v>
       </c>
       <c r="O8">
-        <v>0.3159951185657423</v>
+        <v>0.3100662877561242</v>
       </c>
       <c r="P8">
-        <v>0.3159951185657423</v>
+        <v>0.2453710146341254</v>
       </c>
       <c r="Q8">
-        <v>2676.452062003501</v>
+        <v>2888.108230194432</v>
       </c>
       <c r="R8">
-        <v>2676.452062003501</v>
+        <v>17328.64938116659</v>
       </c>
       <c r="S8">
-        <v>0.2111392300082172</v>
+        <v>0.2100752439361343</v>
       </c>
       <c r="T8">
-        <v>0.2111392300082172</v>
+        <v>0.18162411698867</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>230.076389231933</v>
+        <v>244.237152</v>
       </c>
       <c r="H9">
-        <v>230.076389231933</v>
+        <v>732.711456</v>
       </c>
       <c r="I9">
-        <v>0.6681724419242574</v>
+        <v>0.677517202713003</v>
       </c>
       <c r="J9">
-        <v>0.6681724419242574</v>
+        <v>0.7402020049494888</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.40245009239003</v>
+        <v>6.962713000000001</v>
       </c>
       <c r="N9">
-        <v>6.40245009239003</v>
+        <v>20.888139</v>
       </c>
       <c r="O9">
-        <v>0.1739158483124405</v>
+        <v>0.1825707950518889</v>
       </c>
       <c r="P9">
-        <v>0.1739158483124405</v>
+        <v>0.2167161490626586</v>
       </c>
       <c r="Q9">
-        <v>1473.052599494754</v>
+        <v>1700.553193313376</v>
       </c>
       <c r="R9">
-        <v>1473.052599494754</v>
+        <v>15304.97873982039</v>
       </c>
       <c r="S9">
-        <v>0.1162057770562521</v>
+        <v>0.1236948543606447</v>
       </c>
       <c r="T9">
-        <v>0.1162057770562521</v>
+        <v>0.1604137280411122</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>230.076389231933</v>
+        <v>244.237152</v>
       </c>
       <c r="H10">
-        <v>230.076389231933</v>
+        <v>732.711456</v>
       </c>
       <c r="I10">
-        <v>0.6681724419242574</v>
+        <v>0.677517202713003</v>
       </c>
       <c r="J10">
-        <v>0.6681724419242574</v>
+        <v>0.7402020049494888</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.64031141418204</v>
+        <v>3.740687</v>
       </c>
       <c r="N10">
-        <v>3.64031141418204</v>
+        <v>11.222061</v>
       </c>
       <c r="O10">
-        <v>0.09888524527062588</v>
+        <v>0.09808535834096063</v>
       </c>
       <c r="P10">
-        <v>0.09888524527062588</v>
+        <v>0.1164297999197653</v>
       </c>
       <c r="Q10">
-        <v>837.5497058547954</v>
+        <v>913.614739403424</v>
       </c>
       <c r="R10">
-        <v>837.5497058547954</v>
+        <v>8222.532654630815</v>
       </c>
       <c r="S10">
-        <v>0.06607239580275322</v>
+        <v>0.06645451761027016</v>
       </c>
       <c r="T10">
-        <v>0.06607239580275322</v>
+        <v>0.08618157133647815</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>230.076389231933</v>
+        <v>244.237152</v>
       </c>
       <c r="H11">
-        <v>230.076389231933</v>
+        <v>732.711456</v>
       </c>
       <c r="I11">
-        <v>0.6681724419242574</v>
+        <v>0.677517202713003</v>
       </c>
       <c r="J11">
-        <v>0.6681724419242574</v>
+        <v>0.7402020049494888</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.58975491520357</v>
+        <v>2.636428666666667</v>
       </c>
       <c r="N11">
-        <v>2.58975491520357</v>
+        <v>7.909286</v>
       </c>
       <c r="O11">
-        <v>0.07034797874243288</v>
+        <v>0.06913036308848644</v>
       </c>
       <c r="P11">
-        <v>0.07034797874243288</v>
+        <v>0.08205948858130438</v>
       </c>
       <c r="Q11">
-        <v>595.8414598856882</v>
+        <v>643.913828997824</v>
       </c>
       <c r="R11">
-        <v>595.8414598856882</v>
+        <v>5795.224460980416</v>
       </c>
       <c r="S11">
-        <v>0.04700458074076713</v>
+        <v>0.04683701022224557</v>
       </c>
       <c r="T11">
-        <v>0.04700458074076713</v>
+        <v>0.06074059797301119</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>230.076389231933</v>
+        <v>244.237152</v>
       </c>
       <c r="H12">
-        <v>230.076389231933</v>
+        <v>732.711456</v>
       </c>
       <c r="I12">
-        <v>0.6681724419242574</v>
+        <v>0.677517202713003</v>
       </c>
       <c r="J12">
-        <v>0.6681724419242574</v>
+        <v>0.7402020049494888</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.34928213233554</v>
+        <v>6.770838333333334</v>
       </c>
       <c r="N12">
-        <v>6.34928213233554</v>
+        <v>20.312515</v>
       </c>
       <c r="O12">
-        <v>0.1724715963866177</v>
+        <v>0.1775396081505116</v>
       </c>
       <c r="P12">
-        <v>0.1724715963866177</v>
+        <v>0.2107440030237968</v>
       </c>
       <c r="Q12">
-        <v>1460.819907222589</v>
+        <v>1653.69027118576</v>
       </c>
       <c r="R12">
-        <v>1460.819907222589</v>
+        <v>14883.21244067184</v>
       </c>
       <c r="S12">
-        <v>0.1152407677202213</v>
+        <v>0.1202861386848973</v>
       </c>
       <c r="T12">
-        <v>0.1152407677202213</v>
+        <v>0.1559931335692956</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>230.076389231933</v>
+        <v>244.237152</v>
       </c>
       <c r="H13">
-        <v>230.076389231933</v>
+        <v>732.711456</v>
       </c>
       <c r="I13">
-        <v>0.6681724419242574</v>
+        <v>0.677517202713003</v>
       </c>
       <c r="J13">
-        <v>0.6681724419242574</v>
+        <v>0.7402020049494888</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.19881125705768</v>
+        <v>6.201375000000001</v>
       </c>
       <c r="N13">
-        <v>6.19881125705768</v>
+        <v>12.40275</v>
       </c>
       <c r="O13">
-        <v>0.1683842127221407</v>
+        <v>0.1626075876120282</v>
       </c>
       <c r="P13">
-        <v>0.1683842127221407</v>
+        <v>0.1286795447783495</v>
       </c>
       <c r="Q13">
-        <v>1426.200111554091</v>
+        <v>1514.606168484</v>
       </c>
       <c r="R13">
-        <v>1426.200111554091</v>
+        <v>9087.637010904</v>
       </c>
       <c r="S13">
-        <v>0.1125096905960464</v>
+        <v>0.1101694378988109</v>
       </c>
       <c r="T13">
-        <v>0.1125096905960464</v>
+        <v>0.09524885704092183</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>23.6053318776719</v>
+        <v>0.232137</v>
       </c>
       <c r="H14">
-        <v>23.6053318776719</v>
+        <v>0.696411</v>
       </c>
       <c r="I14">
-        <v>0.06855302404470909</v>
+        <v>0.0006439512154407548</v>
       </c>
       <c r="J14">
-        <v>0.06855302404470909</v>
+        <v>0.0007035304474192341</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.6328844995279</v>
+        <v>11.825016</v>
       </c>
       <c r="N14">
-        <v>11.6328844995279</v>
+        <v>23.650032</v>
       </c>
       <c r="O14">
-        <v>0.3159951185657423</v>
+        <v>0.3100662877561242</v>
       </c>
       <c r="P14">
-        <v>0.3159951185657423</v>
+        <v>0.2453710146341254</v>
       </c>
       <c r="Q14">
-        <v>274.5980993059813</v>
+        <v>2.745023739192</v>
       </c>
       <c r="R14">
-        <v>274.5980993059813</v>
+        <v>16.470142435152</v>
       </c>
       <c r="S14">
-        <v>0.02166242096104803</v>
+        <v>0.000199667562867759</v>
       </c>
       <c r="T14">
-        <v>0.02166242096104803</v>
+        <v>0.0001726259797092577</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>23.6053318776719</v>
+        <v>0.232137</v>
       </c>
       <c r="H15">
-        <v>23.6053318776719</v>
+        <v>0.696411</v>
       </c>
       <c r="I15">
-        <v>0.06855302404470909</v>
+        <v>0.0006439512154407548</v>
       </c>
       <c r="J15">
-        <v>0.06855302404470909</v>
+        <v>0.0007035304474192341</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.40245009239003</v>
+        <v>6.962713000000001</v>
       </c>
       <c r="N15">
-        <v>6.40245009239003</v>
+        <v>20.888139</v>
       </c>
       <c r="O15">
-        <v>0.1739158483124405</v>
+        <v>0.1825707950518889</v>
       </c>
       <c r="P15">
-        <v>0.1739158483124405</v>
+        <v>0.2167161490626586</v>
       </c>
       <c r="Q15">
-        <v>151.1319592610978</v>
+        <v>1.616303307681</v>
       </c>
       <c r="R15">
-        <v>151.1319592610978</v>
+        <v>14.546729769129</v>
       </c>
       <c r="S15">
-        <v>0.01192245733111871</v>
+        <v>0.0001175666853776488</v>
       </c>
       <c r="T15">
-        <v>0.01192245733111871</v>
+        <v>0.0001524664093130256</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>23.6053318776719</v>
+        <v>0.232137</v>
       </c>
       <c r="H16">
-        <v>23.6053318776719</v>
+        <v>0.696411</v>
       </c>
       <c r="I16">
-        <v>0.06855302404470909</v>
+        <v>0.0006439512154407548</v>
       </c>
       <c r="J16">
-        <v>0.06855302404470909</v>
+        <v>0.0007035304474192341</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.64031141418204</v>
+        <v>3.740687</v>
       </c>
       <c r="N16">
-        <v>3.64031141418204</v>
+        <v>11.222061</v>
       </c>
       <c r="O16">
-        <v>0.09888524527062588</v>
+        <v>0.09808535834096063</v>
       </c>
       <c r="P16">
-        <v>0.09888524527062588</v>
+        <v>0.1164297999197653</v>
       </c>
       <c r="Q16">
-        <v>85.93075906984419</v>
+        <v>0.868351858119</v>
       </c>
       <c r="R16">
-        <v>85.93075906984419</v>
+        <v>7.815166723071</v>
       </c>
       <c r="S16">
-        <v>0.006778882596704171</v>
+        <v>6.316218572060357E-05</v>
       </c>
       <c r="T16">
-        <v>0.006778882596704171</v>
+        <v>8.191190923048442E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>23.6053318776719</v>
+        <v>0.232137</v>
       </c>
       <c r="H17">
-        <v>23.6053318776719</v>
+        <v>0.696411</v>
       </c>
       <c r="I17">
-        <v>0.06855302404470909</v>
+        <v>0.0006439512154407548</v>
       </c>
       <c r="J17">
-        <v>0.06855302404470909</v>
+        <v>0.0007035304474192341</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.58975491520357</v>
+        <v>2.636428666666667</v>
       </c>
       <c r="N17">
-        <v>2.58975491520357</v>
+        <v>7.909286</v>
       </c>
       <c r="O17">
-        <v>0.07034797874243288</v>
+        <v>0.06913036308848644</v>
       </c>
       <c r="P17">
-        <v>0.07034797874243288</v>
+        <v>0.08205948858130438</v>
       </c>
       <c r="Q17">
-        <v>61.13202425521232</v>
+        <v>0.612012641394</v>
       </c>
       <c r="R17">
-        <v>61.13202425521232</v>
+        <v>5.508113772546</v>
       </c>
       <c r="S17">
-        <v>0.004822566678226685</v>
+        <v>4.451658133469153E-05</v>
       </c>
       <c r="T17">
-        <v>0.004822566678226685</v>
+        <v>5.77313487165986E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>23.6053318776719</v>
+        <v>0.232137</v>
       </c>
       <c r="H18">
-        <v>23.6053318776719</v>
+        <v>0.696411</v>
       </c>
       <c r="I18">
-        <v>0.06855302404470909</v>
+        <v>0.0006439512154407548</v>
       </c>
       <c r="J18">
-        <v>0.06855302404470909</v>
+        <v>0.0007035304474192341</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.34928213233554</v>
+        <v>6.770838333333334</v>
       </c>
       <c r="N18">
-        <v>6.34928213233554</v>
+        <v>20.312515</v>
       </c>
       <c r="O18">
-        <v>0.1724715963866177</v>
+        <v>0.1775396081505116</v>
       </c>
       <c r="P18">
-        <v>0.1724715963866177</v>
+        <v>0.2107440030237968</v>
       </c>
       <c r="Q18">
-        <v>149.8769119187527</v>
+        <v>1.571762098185</v>
       </c>
       <c r="R18">
-        <v>149.8769119187527</v>
+        <v>14.145858883665</v>
       </c>
       <c r="S18">
-        <v>0.01182344949412117</v>
+        <v>0.0001143268464573973</v>
       </c>
       <c r="T18">
-        <v>0.01182344949412117</v>
+        <v>0.0001482648227382522</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>23.6053318776719</v>
+        <v>0.232137</v>
       </c>
       <c r="H19">
-        <v>23.6053318776719</v>
+        <v>0.696411</v>
       </c>
       <c r="I19">
-        <v>0.06855302404470909</v>
+        <v>0.0006439512154407548</v>
       </c>
       <c r="J19">
-        <v>0.06855302404470909</v>
+        <v>0.0007035304474192341</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.19881125705768</v>
+        <v>6.201375000000001</v>
       </c>
       <c r="N19">
-        <v>6.19881125705768</v>
+        <v>12.40275</v>
       </c>
       <c r="O19">
-        <v>0.1683842127221407</v>
+        <v>0.1626075876120282</v>
       </c>
       <c r="P19">
-        <v>0.1683842127221407</v>
+        <v>0.1286795447783495</v>
       </c>
       <c r="Q19">
-        <v>146.3249969698951</v>
+        <v>1.439568588375</v>
       </c>
       <c r="R19">
-        <v>146.3249969698951</v>
+        <v>8.637411530250001</v>
       </c>
       <c r="S19">
-        <v>0.01154324698349032</v>
+        <v>0.0001047113536826546</v>
       </c>
       <c r="T19">
-        <v>0.01154324698349032</v>
+        <v>9.052997771161559E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>35.8663746209171</v>
+        <v>0.3652469999999999</v>
       </c>
       <c r="H20">
-        <v>35.8663746209171</v>
+        <v>1.095741</v>
       </c>
       <c r="I20">
-        <v>0.1041607232859956</v>
+        <v>0.001013200177421477</v>
       </c>
       <c r="J20">
-        <v>0.1041607232859956</v>
+        <v>0.001106942819664823</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>11.6328844995279</v>
+        <v>11.825016</v>
       </c>
       <c r="N20">
-        <v>11.6328844995279</v>
+        <v>23.650032</v>
       </c>
       <c r="O20">
-        <v>0.3159951185657423</v>
+        <v>0.3100662877561242</v>
       </c>
       <c r="P20">
-        <v>0.3159951185657423</v>
+        <v>0.2453710146341254</v>
       </c>
       <c r="Q20">
-        <v>417.2293933819274</v>
+        <v>4.319051618951999</v>
       </c>
       <c r="R20">
-        <v>417.2293933819274</v>
+        <v>25.914309713712</v>
       </c>
       <c r="S20">
-        <v>0.03291428010465165</v>
+        <v>0.0003141592177669237</v>
       </c>
       <c r="T20">
-        <v>0.03291428010465165</v>
+        <v>0.0002716116828031173</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>35.8663746209171</v>
+        <v>0.3652469999999999</v>
       </c>
       <c r="H21">
-        <v>35.8663746209171</v>
+        <v>1.095741</v>
       </c>
       <c r="I21">
-        <v>0.1041607232859956</v>
+        <v>0.001013200177421477</v>
       </c>
       <c r="J21">
-        <v>0.1041607232859956</v>
+        <v>0.001106942819664823</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.40245009239003</v>
+        <v>6.962713000000001</v>
       </c>
       <c r="N21">
-        <v>6.40245009239003</v>
+        <v>20.888139</v>
       </c>
       <c r="O21">
-        <v>0.1739158483124405</v>
+        <v>0.1825707950518889</v>
       </c>
       <c r="P21">
-        <v>0.1739158483124405</v>
+        <v>0.2167161490626586</v>
       </c>
       <c r="Q21">
-        <v>229.6326735053861</v>
+        <v>2.543110035111</v>
       </c>
       <c r="R21">
-        <v>229.6326735053861</v>
+        <v>22.887990315999</v>
       </c>
       <c r="S21">
-        <v>0.0181152005511213</v>
+        <v>0.0001849807619385539</v>
       </c>
       <c r="T21">
-        <v>0.0181152005511213</v>
+        <v>0.0002398923851103214</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>35.8663746209171</v>
+        <v>0.3652469999999999</v>
       </c>
       <c r="H22">
-        <v>35.8663746209171</v>
+        <v>1.095741</v>
       </c>
       <c r="I22">
-        <v>0.1041607232859956</v>
+        <v>0.001013200177421477</v>
       </c>
       <c r="J22">
-        <v>0.1041607232859956</v>
+        <v>0.001106942819664823</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.64031141418204</v>
+        <v>3.740687</v>
       </c>
       <c r="N22">
-        <v>3.64031141418204</v>
+        <v>11.222061</v>
       </c>
       <c r="O22">
-        <v>0.09888524527062588</v>
+        <v>0.09808535834096063</v>
       </c>
       <c r="P22">
-        <v>0.09888524527062588</v>
+        <v>0.1164297999197653</v>
       </c>
       <c r="Q22">
-        <v>130.5647729178536</v>
+        <v>1.366274704689</v>
       </c>
       <c r="R22">
-        <v>130.5647729178536</v>
+        <v>12.296472342201</v>
       </c>
       <c r="S22">
-        <v>0.01029995866970147</v>
+        <v>9.938010247351043E-05</v>
       </c>
       <c r="T22">
-        <v>0.01029995866970147</v>
+        <v>0.0001288811310161962</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>35.8663746209171</v>
+        <v>0.3652469999999999</v>
       </c>
       <c r="H23">
-        <v>35.8663746209171</v>
+        <v>1.095741</v>
       </c>
       <c r="I23">
-        <v>0.1041607232859956</v>
+        <v>0.001013200177421477</v>
       </c>
       <c r="J23">
-        <v>0.1041607232859956</v>
+        <v>0.001106942819664823</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.58975491520357</v>
+        <v>2.636428666666667</v>
       </c>
       <c r="N23">
-        <v>2.58975491520357</v>
+        <v>7.909286</v>
       </c>
       <c r="O23">
-        <v>0.07034797874243288</v>
+        <v>0.06913036308848644</v>
       </c>
       <c r="P23">
-        <v>0.07034797874243288</v>
+        <v>0.08205948858130438</v>
       </c>
       <c r="Q23">
-        <v>92.88511996505264</v>
+        <v>0.9629476612139999</v>
       </c>
       <c r="R23">
-        <v>92.88511996505264</v>
+        <v>8.666528950925999</v>
       </c>
       <c r="S23">
-        <v>0.007327496347519651</v>
+        <v>7.004289614646556E-05</v>
       </c>
       <c r="T23">
-        <v>0.007327496347519651</v>
+        <v>9.083516167044241E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>35.8663746209171</v>
+        <v>0.3652469999999999</v>
       </c>
       <c r="H24">
-        <v>35.8663746209171</v>
+        <v>1.095741</v>
       </c>
       <c r="I24">
-        <v>0.1041607232859956</v>
+        <v>0.001013200177421477</v>
       </c>
       <c r="J24">
-        <v>0.1041607232859956</v>
+        <v>0.001106942819664823</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.34928213233554</v>
+        <v>6.770838333333334</v>
       </c>
       <c r="N24">
-        <v>6.34928213233554</v>
+        <v>20.312515</v>
       </c>
       <c r="O24">
-        <v>0.1724715963866177</v>
+        <v>0.1775396081505116</v>
       </c>
       <c r="P24">
-        <v>0.1724715963866177</v>
+        <v>0.2107440030237968</v>
       </c>
       <c r="Q24">
-        <v>227.7257315322418</v>
+        <v>2.473028388735</v>
       </c>
       <c r="R24">
-        <v>227.7257315322418</v>
+        <v>22.257255498615</v>
       </c>
       <c r="S24">
-        <v>0.01796476622592041</v>
+        <v>0.0001798831624774378</v>
       </c>
       <c r="T24">
-        <v>0.01796476622592041</v>
+        <v>0.0002332815609346136</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.3652469999999999</v>
+      </c>
+      <c r="H25">
+        <v>1.095741</v>
+      </c>
+      <c r="I25">
+        <v>0.001013200177421477</v>
+      </c>
+      <c r="J25">
+        <v>0.001106942819664823</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>6.201375000000001</v>
+      </c>
+      <c r="N25">
+        <v>12.40275</v>
+      </c>
+      <c r="O25">
+        <v>0.1626075876120282</v>
+      </c>
+      <c r="P25">
+        <v>0.1286795447783495</v>
+      </c>
+      <c r="Q25">
+        <v>2.265033614625</v>
+      </c>
+      <c r="R25">
+        <v>13.59020168775</v>
+      </c>
+      <c r="S25">
+        <v>0.0001647540366185853</v>
+      </c>
+      <c r="T25">
+        <v>0.000142440898130132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>24.068887</v>
+      </c>
+      <c r="H26">
+        <v>72.206661</v>
+      </c>
+      <c r="I26">
+        <v>0.06676742198768909</v>
+      </c>
+      <c r="J26">
+        <v>0.07294483361115629</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>11.825016</v>
+      </c>
+      <c r="N26">
+        <v>23.650032</v>
+      </c>
+      <c r="O26">
+        <v>0.3100662877561242</v>
+      </c>
+      <c r="P26">
+        <v>0.2453710146341254</v>
+      </c>
+      <c r="Q26">
+        <v>284.614973877192</v>
+      </c>
+      <c r="R26">
+        <v>1707.689843263152</v>
+      </c>
+      <c r="S26">
+        <v>0.02070232667876938</v>
+      </c>
+      <c r="T26">
+        <v>0.01789854783548687</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>24.068887</v>
+      </c>
+      <c r="H27">
+        <v>72.206661</v>
+      </c>
+      <c r="I27">
+        <v>0.06676742198768909</v>
+      </c>
+      <c r="J27">
+        <v>0.07294483361115629</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>6.962713000000001</v>
+      </c>
+      <c r="N27">
+        <v>20.888139</v>
+      </c>
+      <c r="O27">
+        <v>0.1825707950518889</v>
+      </c>
+      <c r="P27">
+        <v>0.2167161490626586</v>
+      </c>
+      <c r="Q27">
+        <v>167.584752410431</v>
+      </c>
+      <c r="R27">
+        <v>1508.262771693879</v>
+      </c>
+      <c r="S27">
+        <v>0.01218978131585737</v>
+      </c>
+      <c r="T27">
+        <v>0.01580832343422617</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>24.068887</v>
+      </c>
+      <c r="H28">
+        <v>72.206661</v>
+      </c>
+      <c r="I28">
+        <v>0.06676742198768909</v>
+      </c>
+      <c r="J28">
+        <v>0.07294483361115629</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>3.740687</v>
+      </c>
+      <c r="N28">
+        <v>11.222061</v>
+      </c>
+      <c r="O28">
+        <v>0.09808535834096063</v>
+      </c>
+      <c r="P28">
+        <v>0.1164297999197653</v>
+      </c>
+      <c r="Q28">
+        <v>90.034172705369</v>
+      </c>
+      <c r="R28">
+        <v>810.307554348321</v>
+      </c>
+      <c r="S28">
+        <v>0.006548906511164619</v>
+      </c>
+      <c r="T28">
+        <v>0.008492952382527501</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>24.068887</v>
+      </c>
+      <c r="H29">
+        <v>72.206661</v>
+      </c>
+      <c r="I29">
+        <v>0.06676742198768909</v>
+      </c>
+      <c r="J29">
+        <v>0.07294483361115629</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>2.636428666666667</v>
+      </c>
+      <c r="N29">
+        <v>7.909286</v>
+      </c>
+      <c r="O29">
+        <v>0.06913036308848644</v>
+      </c>
+      <c r="P29">
+        <v>0.08205948858130438</v>
+      </c>
+      <c r="Q29">
+        <v>63.45590366156067</v>
+      </c>
+      <c r="R29">
+        <v>571.1031329540459</v>
+      </c>
+      <c r="S29">
+        <v>0.00461565612449114</v>
+      </c>
+      <c r="T29">
+        <v>0.005985815740779827</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>24.068887</v>
+      </c>
+      <c r="H30">
+        <v>72.206661</v>
+      </c>
+      <c r="I30">
+        <v>0.06676742198768909</v>
+      </c>
+      <c r="J30">
+        <v>0.07294483361115629</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>6.770838333333334</v>
+      </c>
+      <c r="N30">
+        <v>20.312515</v>
+      </c>
+      <c r="O30">
+        <v>0.1775396081505116</v>
+      </c>
+      <c r="P30">
+        <v>0.2107440030237968</v>
+      </c>
+      <c r="Q30">
+        <v>162.9665427402684</v>
+      </c>
+      <c r="R30">
+        <v>1466.698884662415</v>
+      </c>
+      <c r="S30">
+        <v>0.01185386193691417</v>
+      </c>
+      <c r="T30">
+        <v>0.01537268623511988</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>24.068887</v>
+      </c>
+      <c r="H31">
+        <v>72.206661</v>
+      </c>
+      <c r="I31">
+        <v>0.06676742198768909</v>
+      </c>
+      <c r="J31">
+        <v>0.07294483361115629</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>6.201375000000001</v>
+      </c>
+      <c r="N31">
+        <v>12.40275</v>
+      </c>
+      <c r="O31">
+        <v>0.1626075876120282</v>
+      </c>
+      <c r="P31">
+        <v>0.1286795447783495</v>
+      </c>
+      <c r="Q31">
+        <v>149.260194119625</v>
+      </c>
+      <c r="R31">
+        <v>895.56116471775</v>
+      </c>
+      <c r="S31">
+        <v>0.01085688942049241</v>
+      </c>
+      <c r="T31">
+        <v>0.009386507983016041</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>36.5771285</v>
+      </c>
+      <c r="H32">
+        <v>73.154257</v>
+      </c>
+      <c r="I32">
+        <v>0.1014654551187776</v>
+      </c>
+      <c r="J32">
+        <v>0.07390211693645224</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>11.825016</v>
+      </c>
+      <c r="N32">
+        <v>23.650032</v>
+      </c>
+      <c r="O32">
+        <v>0.3100662877561242</v>
+      </c>
+      <c r="P32">
+        <v>0.2453710146341254</v>
+      </c>
+      <c r="Q32">
+        <v>432.525129746556</v>
+      </c>
+      <c r="R32">
+        <v>1730.100518986224</v>
+      </c>
+      <c r="S32">
+        <v>0.031461017004165</v>
+      </c>
+      <c r="T32">
+        <v>0.01813343741630707</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>36.5771285</v>
+      </c>
+      <c r="H33">
+        <v>73.154257</v>
+      </c>
+      <c r="I33">
+        <v>0.1014654551187776</v>
+      </c>
+      <c r="J33">
+        <v>0.07390211693645224</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>6.962713000000001</v>
+      </c>
+      <c r="N33">
+        <v>20.888139</v>
+      </c>
+      <c r="O33">
+        <v>0.1825707950518889</v>
+      </c>
+      <c r="P33">
+        <v>0.2167161490626586</v>
+      </c>
+      <c r="Q33">
+        <v>254.6760481096205</v>
+      </c>
+      <c r="R33">
+        <v>1528.056288657723</v>
+      </c>
+      <c r="S33">
+        <v>0.01852462881133697</v>
+      </c>
+      <c r="T33">
+        <v>0.01601578219004621</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>36.5771285</v>
+      </c>
+      <c r="H34">
+        <v>73.154257</v>
+      </c>
+      <c r="I34">
+        <v>0.1014654551187776</v>
+      </c>
+      <c r="J34">
+        <v>0.07390211693645224</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>3.740687</v>
+      </c>
+      <c r="N34">
+        <v>11.222061</v>
+      </c>
+      <c r="O34">
+        <v>0.09808535834096063</v>
+      </c>
+      <c r="P34">
+        <v>0.1164297999197653</v>
+      </c>
+      <c r="Q34">
+        <v>136.8235890772795</v>
+      </c>
+      <c r="R34">
+        <v>820.941534463677</v>
+      </c>
+      <c r="S34">
+        <v>0.009952275524553958</v>
+      </c>
+      <c r="T34">
+        <v>0.008604408688558236</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>35.8663746209171</v>
-      </c>
-      <c r="H25">
-        <v>35.8663746209171</v>
-      </c>
-      <c r="I25">
-        <v>0.1041607232859956</v>
-      </c>
-      <c r="J25">
-        <v>0.1041607232859956</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>6.19881125705768</v>
-      </c>
-      <c r="N25">
-        <v>6.19881125705768</v>
-      </c>
-      <c r="O25">
-        <v>0.1683842127221407</v>
-      </c>
-      <c r="P25">
-        <v>0.1683842127221407</v>
-      </c>
-      <c r="Q25">
-        <v>222.3288867499888</v>
-      </c>
-      <c r="R25">
-        <v>222.3288867499888</v>
-      </c>
-      <c r="S25">
-        <v>0.01753902138708112</v>
-      </c>
-      <c r="T25">
-        <v>0.01753902138708112</v>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>36.5771285</v>
+      </c>
+      <c r="H35">
+        <v>73.154257</v>
+      </c>
+      <c r="I35">
+        <v>0.1014654551187776</v>
+      </c>
+      <c r="J35">
+        <v>0.07390211693645224</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>2.636428666666667</v>
+      </c>
+      <c r="N35">
+        <v>7.909286</v>
+      </c>
+      <c r="O35">
+        <v>0.06913036308848644</v>
+      </c>
+      <c r="P35">
+        <v>0.08205948858130438</v>
+      </c>
+      <c r="Q35">
+        <v>96.43299012175034</v>
+      </c>
+      <c r="R35">
+        <v>578.597940730502</v>
+      </c>
+      <c r="S35">
+        <v>0.007014343753299619</v>
+      </c>
+      <c r="T35">
+        <v>0.006064369920881023</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>36.5771285</v>
+      </c>
+      <c r="H36">
+        <v>73.154257</v>
+      </c>
+      <c r="I36">
+        <v>0.1014654551187776</v>
+      </c>
+      <c r="J36">
+        <v>0.07390211693645224</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>6.770838333333334</v>
+      </c>
+      <c r="N36">
+        <v>20.312515</v>
+      </c>
+      <c r="O36">
+        <v>0.1775396081505116</v>
+      </c>
+      <c r="P36">
+        <v>0.2107440030237968</v>
+      </c>
+      <c r="Q36">
+        <v>247.6578237710592</v>
+      </c>
+      <c r="R36">
+        <v>1485.946942626355</v>
+      </c>
+      <c r="S36">
+        <v>0.01801413714260109</v>
+      </c>
+      <c r="T36">
+        <v>0.01557442795512068</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>36.5771285</v>
+      </c>
+      <c r="H37">
+        <v>73.154257</v>
+      </c>
+      <c r="I37">
+        <v>0.1014654551187776</v>
+      </c>
+      <c r="J37">
+        <v>0.07390211693645224</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>6.201375000000001</v>
+      </c>
+      <c r="N37">
+        <v>12.40275</v>
+      </c>
+      <c r="O37">
+        <v>0.1626075876120282</v>
+      </c>
+      <c r="P37">
+        <v>0.1286795447783495</v>
+      </c>
+      <c r="Q37">
+        <v>226.8284902516875</v>
+      </c>
+      <c r="R37">
+        <v>907.3139610067501</v>
+      </c>
+      <c r="S37">
+        <v>0.01649905288282094</v>
+      </c>
+      <c r="T37">
+        <v>0.009509690765539027</v>
       </c>
     </row>
   </sheetData>
